--- a/data/trans_orig/P24C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>101981</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86989</v>
+        <v>85362</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118464</v>
+        <v>118622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3898076891201667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3325012045883161</v>
+        <v>0.3262822448643583</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4528102655335397</v>
+        <v>0.4534142651012004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -764,19 +764,19 @@
         <v>97928</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83740</v>
+        <v>82974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112742</v>
+        <v>112568</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4406097892887409</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.376772234903401</v>
+        <v>0.3733272114990321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5072621533328868</v>
+        <v>0.5064800725923706</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>194</v>
@@ -785,19 +785,19 @@
         <v>199909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178330</v>
+        <v>178522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220783</v>
+        <v>222227</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4131423666911438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3685467037888683</v>
+        <v>0.3689439223956069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4562812656289635</v>
+        <v>0.4592666656203289</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>87421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72487</v>
+        <v>72286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103851</v>
+        <v>104003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3341556794396868</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2770702003041108</v>
+        <v>0.2763036610776224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3969559518142759</v>
+        <v>0.3975375852715247</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -835,19 +835,19 @@
         <v>76707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62963</v>
+        <v>62130</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93229</v>
+        <v>90473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.345127322255864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2832905156293413</v>
+        <v>0.2795403978555217</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4194658991464573</v>
+        <v>0.4070644455418053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -856,19 +856,19 @@
         <v>164128</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>143714</v>
+        <v>144444</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186687</v>
+        <v>186440</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3391952299049212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.29700627930066</v>
+        <v>0.2985161632680648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3858168010481826</v>
+        <v>0.3853078275893875</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>72216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58855</v>
+        <v>58213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88196</v>
+        <v>86457</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2760366314401466</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2249634317687636</v>
+        <v>0.2225113476810573</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3371152069367948</v>
+        <v>0.3304687152131293</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -906,19 +906,19 @@
         <v>47621</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36288</v>
+        <v>36707</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62442</v>
+        <v>62312</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2142628884553951</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1632709218049884</v>
+        <v>0.1651566230015534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2809463697092457</v>
+        <v>0.2803591962345803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>119</v>
@@ -927,19 +927,19 @@
         <v>119837</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99986</v>
+        <v>99876</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140196</v>
+        <v>138358</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.247662403403935</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2066373299732925</v>
+        <v>0.2064085921357996</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2897367349678275</v>
+        <v>0.2859386555775175</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>234785</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212983</v>
+        <v>213817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>256144</v>
+        <v>258253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4758171492396872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4316321915840247</v>
+        <v>0.4333227029086468</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5191033335720132</v>
+        <v>0.5233777405726855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -1052,19 +1052,19 @@
         <v>113787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97726</v>
+        <v>96061</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>130157</v>
+        <v>130274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4093718618450544</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.351588357789394</v>
+        <v>0.3455982427333048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4682669384578464</v>
+        <v>0.4686861160652826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>349</v>
@@ -1073,19 +1073,19 @@
         <v>348572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>321319</v>
+        <v>321550</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>376111</v>
+        <v>374868</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4518749518155382</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4165449122483211</v>
+        <v>0.4168443851508395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4875753813208221</v>
+        <v>0.4859636998611269</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>171778</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>150270</v>
+        <v>149133</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>191419</v>
+        <v>194609</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3481260019033338</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3045382439281509</v>
+        <v>0.3022331565216577</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3879315477040662</v>
+        <v>0.3943948865472307</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>110</v>
@@ -1123,19 +1123,19 @@
         <v>113950</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>98150</v>
+        <v>94579</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>129479</v>
+        <v>130027</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4099581005546355</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3531163016105332</v>
+        <v>0.3402682244863224</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4658257114909189</v>
+        <v>0.4677988694767087</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>273</v>
@@ -1144,19 +1144,19 @@
         <v>285728</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>256837</v>
+        <v>261211</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>311627</v>
+        <v>313771</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3704059313175378</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3329536001920451</v>
+        <v>0.3386237508461158</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4039809887523026</v>
+        <v>0.4067600161557864</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>86873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69670</v>
+        <v>69846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105736</v>
+        <v>104388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.176056848856979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1411926799465399</v>
+        <v>0.1415509340636315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2142842037888186</v>
+        <v>0.2115531362036044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1194,19 +1194,19 @@
         <v>50218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38187</v>
+        <v>39309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65277</v>
+        <v>65528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1806700376003101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1373870632299472</v>
+        <v>0.1414223726849699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2348478410277053</v>
+        <v>0.2357505483328269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1215,19 +1215,19 @@
         <v>137091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117207</v>
+        <v>117142</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162358</v>
+        <v>159344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.177719116866924</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1519424383231224</v>
+        <v>0.1518580029850632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2104737792959699</v>
+        <v>0.2065675402778377</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>207033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>184402</v>
+        <v>186175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226961</v>
+        <v>227985</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4552707271826331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4055042408100797</v>
+        <v>0.409401751035333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4990927627465221</v>
+        <v>0.5013432943417637</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -1340,19 +1340,19 @@
         <v>105878</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90332</v>
+        <v>90225</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121753</v>
+        <v>120835</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4272486769794802</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3645154615583612</v>
+        <v>0.364082935788842</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4913088231551103</v>
+        <v>0.4876025560144575</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>313</v>
@@ -1361,19 +1361,19 @@
         <v>312912</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>285770</v>
+        <v>283867</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>339273</v>
+        <v>337325</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4453865524275134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4067548430997002</v>
+        <v>0.4040447686327622</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4829083057433319</v>
+        <v>0.48013572551111</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>170996</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152278</v>
+        <v>152669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>195151</v>
+        <v>193499</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3760245615869385</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3348629843300911</v>
+        <v>0.3357214847291643</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4291408510416722</v>
+        <v>0.4255084566069568</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1411,19 +1411,19 @@
         <v>103498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88534</v>
+        <v>89063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119932</v>
+        <v>119823</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4176440358155079</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3572582669588184</v>
+        <v>0.3593925686503701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4839609586587188</v>
+        <v>0.4835196968868041</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>269</v>
@@ -1432,19 +1432,19 @@
         <v>274494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248490</v>
+        <v>250161</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301017</v>
+        <v>301283</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3907049348468899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3536911684213054</v>
+        <v>0.3560692420483929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4284567394945524</v>
+        <v>0.4288348498471521</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>76718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62314</v>
+        <v>60562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95478</v>
+        <v>94832</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1687047112304284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1370306835404223</v>
+        <v>0.1331780364549568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2099586116147205</v>
+        <v>0.2085383640100058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1482,19 +1482,19 @@
         <v>38438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27581</v>
+        <v>28215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50619</v>
+        <v>51457</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.155107287205012</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1112980289600258</v>
+        <v>0.1138548900351695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2042636514410876</v>
+        <v>0.2076452183498903</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -1503,19 +1503,19 @@
         <v>115156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97201</v>
+        <v>95860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137820</v>
+        <v>137675</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1639085127255967</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1383516141908995</v>
+        <v>0.136444132188008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1961678470745231</v>
+        <v>0.1959609128482268</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>51241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39241</v>
+        <v>40588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63911</v>
+        <v>65078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3195911355394061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2447483671679351</v>
+        <v>0.2531487344420681</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.398617143651734</v>
+        <v>0.4058979387471591</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1628,19 +1628,19 @@
         <v>30619</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21807</v>
+        <v>21408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39554</v>
+        <v>40218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3104728510279877</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2211237079944057</v>
+        <v>0.2170716804471838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4010739189808025</v>
+        <v>0.4078061557630148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1649,19 +1649,19 @@
         <v>81860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67881</v>
+        <v>66662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98791</v>
+        <v>97409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3161184853101828</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2621370605820926</v>
+        <v>0.2574308347366793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3815031603076533</v>
+        <v>0.3761643258046718</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>75207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62767</v>
+        <v>61575</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88455</v>
+        <v>88173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4690673168741711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3914806000754246</v>
+        <v>0.3840445717182628</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5516999313114493</v>
+        <v>0.5499406551403788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1699,19 +1699,19 @@
         <v>44964</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36190</v>
+        <v>36113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54638</v>
+        <v>54155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4559236321484225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3669628479373351</v>
+        <v>0.3661768965454382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5540225243746165</v>
+        <v>0.5491240462305385</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -1720,19 +1720,19 @@
         <v>120170</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104267</v>
+        <v>103309</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137440</v>
+        <v>136545</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4640616143521066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4026490703281942</v>
+        <v>0.3989473529678068</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.530751157481144</v>
+        <v>0.5272971215771908</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>33885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24145</v>
+        <v>24042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45032</v>
+        <v>46601</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2113415475864228</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1505955004198438</v>
+        <v>0.1499517841624498</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2808675069013871</v>
+        <v>0.2906562227037136</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1770,19 +1770,19 @@
         <v>23038</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15833</v>
+        <v>15200</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31881</v>
+        <v>31589</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2336035168235898</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1605451322969935</v>
+        <v>0.1541238116732579</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3232690035219167</v>
+        <v>0.3203097152270238</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -1791,19 +1791,19 @@
         <v>56923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43069</v>
+        <v>45512</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70523</v>
+        <v>73510</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2198199003377106</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1663211113819036</v>
+        <v>0.1757520541090881</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2723398430042818</v>
+        <v>0.2838754840486829</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>595041</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>559603</v>
+        <v>561567</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>632428</v>
+        <v>632451</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4342933592712942</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4084286191098206</v>
+        <v>0.4098621937229353</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4615803798320922</v>
+        <v>0.4615974133912135</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -1916,19 +1916,19 @@
         <v>348212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320994</v>
+        <v>320305</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>378972</v>
+        <v>376071</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4112845894486375</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.379136576994638</v>
+        <v>0.3783230565793088</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4476158207810503</v>
+        <v>0.444190040702069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>935</v>
@@ -1937,19 +1937,19 @@
         <v>943253</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>898175</v>
+        <v>898338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>988138</v>
+        <v>987814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4255057224470032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4051707748965748</v>
+        <v>0.4052442614157244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4457535898902389</v>
+        <v>0.4456075587047977</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>505403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>470488</v>
+        <v>473709</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>538473</v>
+        <v>537968</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3688704715203662</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3433878687623279</v>
+        <v>0.3457387458004</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3930070345652008</v>
+        <v>0.3926384578722299</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>329</v>
@@ -1987,19 +1987,19 @@
         <v>339118</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>311945</v>
+        <v>309579</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>370618</v>
+        <v>367037</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4005431117424058</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3684487548718284</v>
+        <v>0.3656543299292561</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4377486575945511</v>
+        <v>0.4335197968781385</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>813</v>
@@ -2008,19 +2008,19 @@
         <v>844521</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>799678</v>
+        <v>798019</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>889005</v>
+        <v>891487</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3809670617197972</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3607383262124517</v>
+        <v>0.3599901115684125</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4010343521612435</v>
+        <v>0.4021537050417963</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>269692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>239043</v>
+        <v>244279</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>298758</v>
+        <v>300316</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1968361692083396</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1744664167297981</v>
+        <v>0.1782878668635295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2180500731080245</v>
+        <v>0.2191867111443097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -2058,19 +2058,19 @@
         <v>159315</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138058</v>
+        <v>138472</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182465</v>
+        <v>185269</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1881722988089567</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1630651020810537</v>
+        <v>0.163553287108549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2155149215684024</v>
+        <v>0.2188269183779296</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>413</v>
@@ -2079,19 +2079,19 @@
         <v>429007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>395621</v>
+        <v>390956</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>468757</v>
+        <v>466176</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1935272158331995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1784663066292294</v>
+        <v>0.176361870634767</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2114584476623599</v>
+        <v>0.210294176552782</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>60068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46215</v>
+        <v>45500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77575</v>
+        <v>75474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1212709275765468</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09330402289249685</v>
+        <v>0.09186044480282544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1566159343163932</v>
+        <v>0.1523752177987912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2444,19 +2444,19 @@
         <v>35742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25222</v>
+        <v>25306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48939</v>
+        <v>49437</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1005361242751935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07094653563094563</v>
+        <v>0.07118156141401252</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1376583619443244</v>
+        <v>0.1390587242896809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2465,19 +2465,19 @@
         <v>95810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77738</v>
+        <v>77225</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114547</v>
+        <v>115669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1126070659853301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09136742856190516</v>
+        <v>0.09076450748323503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1346293590000493</v>
+        <v>0.135948696215385</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>233679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211318</v>
+        <v>210151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257984</v>
+        <v>257376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4717741304457748</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4266299739911719</v>
+        <v>0.4242731842906569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5208438999269681</v>
+        <v>0.5196173697548578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -2515,19 +2515,19 @@
         <v>156085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135898</v>
+        <v>135908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175374</v>
+        <v>176995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4390424496526985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3822580900889698</v>
+        <v>0.3822862834128798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4932984918247401</v>
+        <v>0.4978592062862444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>366</v>
@@ -2536,19 +2536,19 @@
         <v>389764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>359832</v>
+        <v>358410</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>419440</v>
+        <v>418676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4580974754074996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4229179398252398</v>
+        <v>0.4212467359698365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4929764729889534</v>
+        <v>0.4920793359587361</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>201573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>179300</v>
+        <v>180201</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>225599</v>
+        <v>223535</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4069549419776783</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3619898279197793</v>
+        <v>0.3638086404930925</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4554625556478273</v>
+        <v>0.4512950884487635</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -2586,19 +2586,19 @@
         <v>163686</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145088</v>
+        <v>143954</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>183276</v>
+        <v>184183</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.460421426072108</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4081086810711375</v>
+        <v>0.4049197980658791</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.515526032225211</v>
+        <v>0.5180776768252456</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>333</v>
@@ -2607,19 +2607,19 @@
         <v>365258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>337974</v>
+        <v>334253</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>397774</v>
+        <v>396336</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4292954586071703</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3972276728556071</v>
+        <v>0.3928542834841055</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4675119847163281</v>
+        <v>0.465822559659018</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>77904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62287</v>
+        <v>63692</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94679</v>
+        <v>95025</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1933927684932618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1546241542059473</v>
+        <v>0.1581116518917687</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2350368678470532</v>
+        <v>0.2358937383999496</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -2732,19 +2732,19 @@
         <v>33431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22903</v>
+        <v>22476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46369</v>
+        <v>45781</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1138212320777418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07797669914076336</v>
+        <v>0.0765226700558307</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.157869518910203</v>
+        <v>0.1558694107007604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -2753,19 +2753,19 @@
         <v>111335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91392</v>
+        <v>92688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131986</v>
+        <v>132427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1598393467949046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1312077703636119</v>
+        <v>0.1330687485221419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1894877788723293</v>
+        <v>0.1901198903270644</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>184034</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>165317</v>
+        <v>161548</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>208744</v>
+        <v>204626</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4568558445221235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4103898657082643</v>
+        <v>0.4010350170585275</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5181956154693499</v>
+        <v>0.5079728773621282</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>153</v>
@@ -2803,19 +2803,19 @@
         <v>167285</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>149091</v>
+        <v>149232</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>184652</v>
+        <v>185558</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5695468322227477</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.507603824558873</v>
+        <v>0.5080836490029712</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6286766755659776</v>
+        <v>0.6317591842159456</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>327</v>
@@ -2824,19 +2824,19 @@
         <v>351319</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>323844</v>
+        <v>322736</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>379453</v>
+        <v>378196</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5043749499994675</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.464930786813598</v>
+        <v>0.4633391150244176</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5447662649275923</v>
+        <v>0.5429618048052077</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>140890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123446</v>
+        <v>122000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>161646</v>
+        <v>162513</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3497513869846148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3064475671155357</v>
+        <v>0.3028588629073079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4012788322154005</v>
+        <v>0.4034305058187121</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -2874,19 +2874,19 @@
         <v>93000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76689</v>
+        <v>75637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110010</v>
+        <v>109972</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3166319356995105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2610982110384172</v>
+        <v>0.2575171028479066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3745458321197659</v>
+        <v>0.3744175268263953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -2895,19 +2895,19 @@
         <v>233889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208915</v>
+        <v>209557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>260544</v>
+        <v>260119</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3357857032056278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2999305456922617</v>
+        <v>0.3008532339411021</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3740529567171</v>
+        <v>0.3734422528522177</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>67038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53343</v>
+        <v>52726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83836</v>
+        <v>82875</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2374662191665381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1889565529758119</v>
+        <v>0.1867700466695938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2969695540363515</v>
+        <v>0.2935675048757769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -3020,19 +3020,19 @@
         <v>42935</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32474</v>
+        <v>32282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>56510</v>
+        <v>56192</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1955590961460586</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1479102803786462</v>
+        <v>0.1470366305753905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2573884352179728</v>
+        <v>0.2559394630918025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>103</v>
@@ -3041,19 +3041,19 @@
         <v>109972</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90437</v>
+        <v>90677</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>130346</v>
+        <v>128613</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2191327818166348</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1802056997601913</v>
+        <v>0.1806842497192867</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2597302889587791</v>
+        <v>0.2562753407089263</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>136714</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119852</v>
+        <v>121166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158152</v>
+        <v>154875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4842807354801981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.42455011618087</v>
+        <v>0.4292035935277977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5602197285864203</v>
+        <v>0.5486100497806982</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -3091,19 +3091,19 @@
         <v>107414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92519</v>
+        <v>92093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123825</v>
+        <v>121835</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4892448099934836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4214028306465771</v>
+        <v>0.4194638751396662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5639924692072917</v>
+        <v>0.5549317548873566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -3112,19 +3112,19 @@
         <v>244128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220853</v>
+        <v>220641</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269969</v>
+        <v>266904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4864524080391828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4400759485984597</v>
+        <v>0.4396530277126381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5379441594540509</v>
+        <v>0.5318366124533792</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>78552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62232</v>
+        <v>63084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96167</v>
+        <v>93997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2782530453532638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2204441263478347</v>
+        <v>0.2234615926615123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3406504394265673</v>
+        <v>0.3329655147364849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -3162,19 +3162,19 @@
         <v>69201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54163</v>
+        <v>55580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82276</v>
+        <v>84503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3151960938604578</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2467001436259142</v>
+        <v>0.253153901055079</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3747463077412461</v>
+        <v>0.3848905013200963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>133</v>
@@ -3183,19 +3183,19 @@
         <v>147753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127334</v>
+        <v>126984</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169785</v>
+        <v>172315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2944148101441824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2537277736442382</v>
+        <v>0.2530308014090735</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3383165119088199</v>
+        <v>0.3433570421123855</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>28669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19764</v>
+        <v>19262</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40196</v>
+        <v>38929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1811278328765191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1248682653281823</v>
+        <v>0.1216964092335721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2539600850692328</v>
+        <v>0.2459514541305482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3308,19 +3308,19 @@
         <v>26171</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18351</v>
+        <v>17995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37236</v>
+        <v>36691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2531066525929565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1774801150310801</v>
+        <v>0.1740349288848776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3601173674232546</v>
+        <v>0.3548440871805117</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -3329,19 +3329,19 @@
         <v>54840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42017</v>
+        <v>42938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69392</v>
+        <v>69193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.20956966921754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1605665973486649</v>
+        <v>0.1640863982539203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2651812615642678</v>
+        <v>0.2644206344732151</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>70113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57412</v>
+        <v>58327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83030</v>
+        <v>84534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.442975832982062</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3627260118816801</v>
+        <v>0.3685107411464458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5245819784984396</v>
+        <v>0.5340835408008778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -3379,19 +3379,19 @@
         <v>43840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32808</v>
+        <v>33757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53544</v>
+        <v>55864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4239857475138199</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3172896959703924</v>
+        <v>0.3264731201676497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5178335226651862</v>
+        <v>0.5402733554621164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>105</v>
@@ -3400,19 +3400,19 @@
         <v>113953</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96563</v>
+        <v>97635</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131963</v>
+        <v>132538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4354720574948071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3690149735388396</v>
+        <v>0.3731113949274577</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5042954359490298</v>
+        <v>0.5064927684958257</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>59496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47246</v>
+        <v>46380</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72765</v>
+        <v>72270</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3758963341414189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.298497967451278</v>
+        <v>0.2930279444661577</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4597295672046291</v>
+        <v>0.4565996132229756</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -3450,19 +3450,19 @@
         <v>33389</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24112</v>
+        <v>23826</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44294</v>
+        <v>43527</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3229075998932237</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2331945375441412</v>
+        <v>0.2304213468467535</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4283724775886517</v>
+        <v>0.4209548689318927</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>83</v>
@@ -3471,19 +3471,19 @@
         <v>92884</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>76870</v>
+        <v>76119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109855</v>
+        <v>108698</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3549582732876528</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2937598157096647</v>
+        <v>0.2908881264560179</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4198110050851369</v>
+        <v>0.4153907136002327</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>233678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206983</v>
+        <v>205011</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263294</v>
+        <v>260499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1745521391265078</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1546116319247206</v>
+        <v>0.1531384879067416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1966750535359784</v>
+        <v>0.1945871478051718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>128</v>
@@ -3596,19 +3596,19 @@
         <v>138279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116934</v>
+        <v>115872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162711</v>
+        <v>161396</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1422363523239016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1202803373698147</v>
+        <v>0.1191883849561756</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1673669915717542</v>
+        <v>0.1660148436109119</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>351</v>
@@ -3617,19 +3617,19 @@
         <v>371957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>333355</v>
+        <v>335814</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>408055</v>
+        <v>408612</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1609571691777391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1442530786876464</v>
+        <v>0.1453172907925691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1765780812979137</v>
+        <v>0.1768189688295687</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>624540</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>585691</v>
+        <v>587160</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>660270</v>
+        <v>660624</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4665176758310164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4374987960394517</v>
+        <v>0.4385958478846518</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4932074948143117</v>
+        <v>0.4934716785977931</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>440</v>
@@ -3667,19 +3667,19 @@
         <v>474624</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>441278</v>
+        <v>441108</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>504805</v>
+        <v>505776</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4882065586895926</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4539062708075627</v>
+        <v>0.4537317806412435</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5192514240528209</v>
+        <v>0.5202503777260165</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1031</v>
@@ -3688,19 +3688,19 @@
         <v>1099163</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1050933</v>
+        <v>1054307</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1152615</v>
+        <v>1147892</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4756419998799957</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4547709984726722</v>
+        <v>0.4562312582422555</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4987722738196907</v>
+        <v>0.4967285336865144</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>480510</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>445073</v>
+        <v>444580</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>515529</v>
+        <v>517593</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3589301850424758</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3324601648315442</v>
+        <v>0.3320913449202657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3850890684308485</v>
+        <v>0.386631095326109</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>326</v>
@@ -3738,19 +3738,19 @@
         <v>359275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>327608</v>
+        <v>328485</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>391552</v>
+        <v>391364</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3695570889865058</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3369833616957488</v>
+        <v>0.3378853498985278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4027572164601123</v>
+        <v>0.4025644506216761</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>767</v>
@@ -3759,19 +3759,19 @@
         <v>839785</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>787272</v>
+        <v>790557</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>889425</v>
+        <v>888489</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3634008309422652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3406770399369993</v>
+        <v>0.3420982699624409</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3848817271357844</v>
+        <v>0.3844768182644992</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>67637</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52514</v>
+        <v>51790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84960</v>
+        <v>86508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1392302949980125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1081000669518009</v>
+        <v>0.106608619188529</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1748905873525194</v>
+        <v>0.1780757494943875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -4124,19 +4124,19 @@
         <v>51352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39405</v>
+        <v>38752</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65845</v>
+        <v>66149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1325140143303231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1016860717288563</v>
+        <v>0.09999957130218672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.169913331322578</v>
+        <v>0.1706978653344723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -4145,19 +4145,19 @@
         <v>118989</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100626</v>
+        <v>99797</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142600</v>
+        <v>139160</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1362500378682824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1152233353288362</v>
+        <v>0.1142749477834489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1632870980535963</v>
+        <v>0.1593477874246393</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>231289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>208081</v>
+        <v>207521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>254138</v>
+        <v>255609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4761087320179148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.428333802038103</v>
+        <v>0.4271811858944056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5231420197080234</v>
+        <v>0.5261716122344775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -4195,19 +4195,19 @@
         <v>165968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146870</v>
+        <v>146986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185608</v>
+        <v>185254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4282844951128363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3790018737870812</v>
+        <v>0.3793013240837279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4789641227755993</v>
+        <v>0.4780520341424043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>374</v>
@@ -4216,19 +4216,19 @@
         <v>397258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>365545</v>
+        <v>366830</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426874</v>
+        <v>429320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4548873849565965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4185740170939233</v>
+        <v>0.4200457975533148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4887999770686869</v>
+        <v>0.4916009286127456</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>186865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>164892</v>
+        <v>164871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>211642</v>
+        <v>208315</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3846609729840727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3394303143453857</v>
+        <v>0.339386045754393</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4356643032970169</v>
+        <v>0.4288165314303609</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -4266,19 +4266,19 @@
         <v>170199</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>150681</v>
+        <v>152179</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>189071</v>
+        <v>192026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4392014905568407</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3888342672076882</v>
+        <v>0.3927008416978371</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4879009653598275</v>
+        <v>0.4955267895546777</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>338</v>
@@ -4287,19 +4287,19 @@
         <v>357064</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>325444</v>
+        <v>326560</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>388543</v>
+        <v>388493</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4088625771751211</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3726556728345529</v>
+        <v>0.3739334027101278</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4449078949234782</v>
+        <v>0.4448511048453736</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>49733</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36804</v>
+        <v>37330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63726</v>
+        <v>63773</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1558755761506552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1153524600914686</v>
+        <v>0.1170017113689473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1997337193787868</v>
+        <v>0.1998830360852782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -4412,19 +4412,19 @@
         <v>27000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18875</v>
+        <v>17897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38600</v>
+        <v>36646</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1057470637100589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0739240726368884</v>
+        <v>0.07009693563445968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1511819362988304</v>
+        <v>0.1435256975184332</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -4433,19 +4433,19 @@
         <v>76732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>62023</v>
+        <v>61015</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>94190</v>
+        <v>95148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1335922916248558</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1079827896529755</v>
+        <v>0.1062287390937176</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1639868194947705</v>
+        <v>0.1656546634143437</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>151155</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132665</v>
+        <v>133577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>171312</v>
+        <v>171064</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4737604827506557</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4158094519083176</v>
+        <v>0.4186657778263287</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5369376482998048</v>
+        <v>0.5361615091620315</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -4483,19 +4483,19 @@
         <v>126945</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111915</v>
+        <v>111334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>142954</v>
+        <v>143344</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4971908620143581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4383255628221802</v>
+        <v>0.4360493103632503</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5598943805510195</v>
+        <v>0.561418729956099</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>269</v>
@@ -4504,19 +4504,19 @@
         <v>278099</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>254762</v>
+        <v>252187</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>301357</v>
+        <v>302429</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4841758288732677</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4435456624102023</v>
+        <v>0.4390623633087078</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5246668009591984</v>
+        <v>0.5265335133775949</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>118166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100344</v>
+        <v>100463</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136835</v>
+        <v>135487</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3703639410986891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3145047961082938</v>
+        <v>0.3148774901338704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4288788717798196</v>
+        <v>0.4246528267224868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -4554,19 +4554,19 @@
         <v>101379</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86351</v>
+        <v>86852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116977</v>
+        <v>115145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3970620742755829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3382033426102769</v>
+        <v>0.3401651434081162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4581521134934303</v>
+        <v>0.4509765133482899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -4575,19 +4575,19 @@
         <v>219545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196297</v>
+        <v>195674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242326</v>
+        <v>242579</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3822318795018765</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3417569029942252</v>
+        <v>0.3406714855695323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4218942610833181</v>
+        <v>0.4223338107642064</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>27993</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18422</v>
+        <v>18990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39433</v>
+        <v>40433</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1259055897388711</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08285799709743771</v>
+        <v>0.08541187444069055</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1773571272719003</v>
+        <v>0.1818569290430245</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -4700,19 +4700,19 @@
         <v>27752</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19283</v>
+        <v>19731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37565</v>
+        <v>38102</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1720354181005249</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1195315350234598</v>
+        <v>0.1223114566566</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.232860371556957</v>
+        <v>0.2361935196757719</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -4721,19 +4721,19 @@
         <v>55746</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43402</v>
+        <v>41561</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71360</v>
+        <v>70283</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1453022544605843</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1131297006922707</v>
+        <v>0.1083302159442185</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.186001525603479</v>
+        <v>0.1831934786060532</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>126382</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112060</v>
+        <v>111646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142826</v>
+        <v>141384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5684331498100549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5040150961890609</v>
+        <v>0.5021563460609112</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6423936405942136</v>
+        <v>0.6359092760609779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -4771,19 +4771,19 @@
         <v>84805</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72779</v>
+        <v>72886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98163</v>
+        <v>97901</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5257026444005213</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4511535291192236</v>
+        <v>0.4518182813900384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6085032194749882</v>
+        <v>0.6068827887156647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>202</v>
@@ -4792,19 +4792,19 @@
         <v>211187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190771</v>
+        <v>191505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232344</v>
+        <v>230142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5504658319973779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4972506585242268</v>
+        <v>0.4991635138278247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6056116611567406</v>
+        <v>0.5998712135654156</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>67959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55285</v>
+        <v>53228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83431</v>
+        <v>82019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.305661260451074</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2486559124083494</v>
+        <v>0.239406825357177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3752508418974228</v>
+        <v>0.3689010595431781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -4842,19 +4842,19 @@
         <v>48760</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38222</v>
+        <v>36531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61931</v>
+        <v>61029</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3022619374989538</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2369380989124416</v>
+        <v>0.2264508600118976</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3839092440702421</v>
+        <v>0.3783149481089074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -4863,19 +4863,19 @@
         <v>116719</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97227</v>
+        <v>98798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133834</v>
+        <v>136195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3042319135420378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2534253556225872</v>
+        <v>0.2575204030840526</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3488417613525838</v>
+        <v>0.3549957977977395</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>31369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22589</v>
+        <v>21494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43172</v>
+        <v>42467</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2470434677668922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1778990993360507</v>
+        <v>0.1692797844750675</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3400000423945828</v>
+        <v>0.3344520486689917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4988,19 +4988,19 @@
         <v>17180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10395</v>
+        <v>10824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25493</v>
+        <v>26201</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1876808161251233</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1135591736292223</v>
+        <v>0.1182390847259975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2784900502281081</v>
+        <v>0.2862268546856816</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -5009,19 +5009,19 @@
         <v>48549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36649</v>
+        <v>35787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62731</v>
+        <v>60183</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2221754113970604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1677177885920505</v>
+        <v>0.163772479342614</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2870766459333184</v>
+        <v>0.2754172205852548</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>53813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41778</v>
+        <v>43107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65196</v>
+        <v>66030</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4238078452759612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.32902019345041</v>
+        <v>0.3394878628280499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5134536371365392</v>
+        <v>0.5200175958809575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -5059,19 +5059,19 @@
         <v>43824</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34982</v>
+        <v>33449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53521</v>
+        <v>53030</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4787359317066681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3821458956410846</v>
+        <v>0.3654017553081886</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5846688993560564</v>
+        <v>0.5793036700909338</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -5080,19 +5080,19 @@
         <v>97637</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>83057</v>
+        <v>82838</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111987</v>
+        <v>112229</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4468181844685032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3800951175762399</v>
+        <v>0.3790900015318505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5124866361616077</v>
+        <v>0.5135961667438316</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>41794</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31378</v>
+        <v>30617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53643</v>
+        <v>52632</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3291486869571466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2471195510398254</v>
+        <v>0.2411274733885338</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4224673582030462</v>
+        <v>0.4145057761417169</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -5130,19 +5130,19 @@
         <v>30537</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21135</v>
+        <v>22068</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39233</v>
+        <v>40021</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3335832521682086</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2308814219863915</v>
+        <v>0.2410749442087227</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4285836253911287</v>
+        <v>0.4371914974554488</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>66</v>
@@ -5151,19 +5151,19 @@
         <v>72331</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59166</v>
+        <v>58048</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87102</v>
+        <v>87509</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3310064041344364</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2707629755445415</v>
+        <v>0.2656462280669867</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3986048823161127</v>
+        <v>0.4004668691949023</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>176731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153891</v>
+        <v>154759</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204038</v>
+        <v>204971</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1531261163534474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1333364474237795</v>
+        <v>0.1340882616544157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.176785656772581</v>
+        <v>0.1775942942945669</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -5276,19 +5276,19 @@
         <v>123284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104203</v>
+        <v>104269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>145502</v>
+        <v>146081</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1376399131188614</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1163368245489036</v>
+        <v>0.1164099114256107</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1624450300622845</v>
+        <v>0.1630913956397566</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>281</v>
@@ -5297,19 +5297,19 @@
         <v>300015</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267373</v>
+        <v>270680</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>330854</v>
+        <v>333636</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.146359290334196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.130434898350373</v>
+        <v>0.1320482641231281</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1614035973580343</v>
+        <v>0.1627605702279565</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>562639</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>526831</v>
+        <v>528572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>598145</v>
+        <v>597459</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4874908053218856</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4564648357862754</v>
+        <v>0.4579737943919817</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5182540030657876</v>
+        <v>0.5176597093723458</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>411</v>
@@ -5347,19 +5347,19 @@
         <v>421542</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>391684</v>
+        <v>390013</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>451220</v>
+        <v>451130</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4706279304671762</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4372932703408706</v>
+        <v>0.4354277158731409</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5037617713380269</v>
+        <v>0.5036604152231188</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>939</v>
@@ -5368,19 +5368,19 @@
         <v>984182</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>939862</v>
+        <v>939231</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1030182</v>
+        <v>1030659</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4801224311246914</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.458501336015467</v>
+        <v>0.4581937392644386</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5025631156293895</v>
+        <v>0.5027959675530982</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>414783</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>384108</v>
+        <v>381902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>453148</v>
+        <v>447671</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.359383078324667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3328044218616922</v>
+        <v>0.3308931788462967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3926238091944971</v>
+        <v>0.387878419126849</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>334</v>
@@ -5418,19 +5418,19 @@
         <v>350875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>324028</v>
+        <v>320932</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>381543</v>
+        <v>382391</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3917321564139624</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3617591057655621</v>
+        <v>0.3583026261509762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4259705008286249</v>
+        <v>0.4269171701863985</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>720</v>
@@ -5439,19 +5439,19 @@
         <v>765659</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>727271</v>
+        <v>722733</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>811259</v>
+        <v>809763</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3735182785411125</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3547911376430949</v>
+        <v>0.3525775499278501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3957640248290019</v>
+        <v>0.3950340654182208</v>
       </c>
     </row>
     <row r="23">
